--- a/project/main/xlsx_files/expense_order.xlsx
+++ b/project/main/xlsx_files/expense_order.xlsx
@@ -9,17 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhWkOzgyg6MeIbJR0kvFNcvGTITKQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miFp5ne5lpR+ggkFqZN+cCDMWuDuA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>"ЕВГЕНИ ИНТЕР ТРАНС" ООД , с. Яхиново, ЕИК 206156691</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>РАЗХОДЕН ОРДЕР</t>
   </si>
@@ -31,9 +28,6 @@
   </si>
   <si>
     <t>Да се изплати на лицата:</t>
-  </si>
-  <si>
-    <t>Георги Трайков</t>
   </si>
   <si>
     <t>сумата от</t>
@@ -60,9 +54,6 @@
     <t xml:space="preserve">,към разплащателна банкова сметка </t>
   </si>
   <si>
-    <t>BG79RZBB91551012325473</t>
-  </si>
-  <si>
     <t>Получил:</t>
   </si>
   <si>
@@ -70,18 +61,6 @@
   </si>
   <si>
     <t>(подпис)</t>
-  </si>
-  <si>
-    <t>Йордан Евгениев Искренов</t>
-  </si>
-  <si>
-    <t>Лицето е заминало на:</t>
-  </si>
-  <si>
-    <t>Завърнал се  на:</t>
-  </si>
-  <si>
-    <t>Дни в командировка:</t>
   </si>
 </sst>
 </file>
@@ -164,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -192,6 +171,14 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -201,12 +188,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -219,30 +200,11 @@
         <color rgb="FF000000"/>
       </top>
     </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -266,13 +228,11 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -298,7 +258,6 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -311,13 +270,10 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -541,14 +497,12 @@
     <col customWidth="1" min="5" max="5" width="10.75"/>
     <col customWidth="1" min="6" max="6" width="7.63"/>
     <col customWidth="1" min="7" max="7" width="11.38"/>
-    <col customWidth="1" min="8" max="8" width="7.38"/>
+    <col customWidth="1" min="8" max="8" width="8.75"/>
     <col customWidth="1" min="9" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -597,20 +551,16 @@
     </row>
     <row r="3" ht="21.75" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8">
-        <v>44570.0</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -661,15 +611,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -693,10 +641,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -721,22 +669,18 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
-        <v>205.0</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="14">
-        <v>120.0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -761,9 +705,12 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -786,12 +733,12 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="3"/>
       <c r="I9" s="17"/>
       <c r="J9" s="2"/>
@@ -814,22 +761,18 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="19">
-        <v>5.0</v>
+      <c r="F10" s="19"/>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="20">
-        <v>44568.0</v>
-      </c>
-      <c r="I10" s="12"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -878,16 +821,14 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="23">
-        <v>1623.0</v>
-      </c>
+      <c r="G12" s="23"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="2"/>
@@ -910,18 +851,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="12"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -970,11 +909,11 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25" t="str">
         <f>G3</f>
-        <v>44570</v>
+        <v/>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1003,7 +942,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1030,11 +969,15 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="28" t="s">
-        <v>15</v>
+      <c r="A17" s="27" t="s">
+        <v>12</v>
       </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1058,16 +1001,17 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29" t="s">
-        <v>17</v>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28" t="s">
+        <v>14</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31" t="s">
-        <v>17</v>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -1089,19 +1033,15 @@
       <c r="Z18" s="32"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="12"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1122,12 +1062,12 @@
     </row>
     <row r="20" ht="20.25" customHeight="1">
       <c r="A20" s="18"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1149,17 +1089,13 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="20.25" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="34">
-        <v>44568.0</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1181,19 +1117,19 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -1209,23 +1145,19 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="34">
-        <v>44571.0</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1249,11 +1181,11 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -1269,23 +1201,19 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="20.25" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="19">
-        <v>3.0</v>
-      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1309,11 +1237,11 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -1329,19 +1257,19 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -1357,19 +1285,19 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -28601,19 +28529,14 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D8:G8"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="F19:I19"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.0" right="0.0" top="0.0"/>

--- a/project/main/xlsx_files/expense_order.xlsx
+++ b/project/main/xlsx_files/expense_order.xlsx
@@ -258,7 +258,7 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -915,7 +915,7 @@
         <f>G3</f>
         <v/>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -28529,14 +28529,15 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="F19:I19"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.0" right="0.0" top="0.0"/>
